--- a/va_facility_data_2025-02-20/Lowell VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lowell%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Lowell VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lowell%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rf5b917c148d0415bb07d29c595285020"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R9742e31c776149aead70c8cced03d3a2"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R6380fcd7fc764086b9f98b17ac4f1642"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rb6827b002ca746b781d283dbceb04f0d"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc08acd1758f34619bd31009eeae66c2b"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R94182ca9833447e19369c7504bb3ca65"/>
   </x:sheets>
 </x:workbook>
 </file>
